--- a/data/input/hunting_scenarios_rel.xlsx
+++ b/data/input/hunting_scenarios_rel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>juvenileF</t>
   </si>
@@ -40,16 +40,10 @@
     <t>som</t>
   </si>
   <si>
-    <t>adult3F</t>
+    <t>adultM</t>
   </si>
   <si>
-    <t>adult5F</t>
-  </si>
-  <si>
-    <t>adult3M</t>
-  </si>
-  <si>
-    <t>adult5M</t>
+    <t>adultF</t>
   </si>
 </sst>
 </file>
@@ -378,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,7 +383,7 @@
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -400,28 +394,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -443,18 +431,12 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J13" si="0">SUM(B2:I2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f t="shared" ref="H2:H13" si="0">SUM(B2:G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -476,18 +458,12 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -509,18 +485,12 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -542,18 +512,12 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -575,18 +539,12 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -608,18 +566,12 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -641,18 +593,12 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -674,18 +620,12 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -707,18 +647,12 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -740,18 +674,12 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -773,18 +701,12 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -806,13 +728,7 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -825,10 +741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,7 +752,7 @@
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -847,28 +763,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -891,17 +801,11 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J13" si="0">SUM(B2:I2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H2:H13" si="0">SUM(B2:G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -924,17 +828,11 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -957,17 +855,11 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -990,17 +882,11 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0.5</v>
       </c>
@@ -1011,29 +897,23 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.5</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.5</v>
-      </c>
-      <c r="J6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1056,17 +936,11 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1089,17 +963,11 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>0.5</v>
       </c>
@@ -1109,30 +977,24 @@
       <c r="C9" s="1">
         <v>0.1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.1</v>
       </c>
       <c r="E9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.2</v>
       </c>
       <c r="G9" s="1">
         <v>0.1</v>
       </c>
       <c r="H9">
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -1155,17 +1017,11 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -1188,17 +1044,11 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -1221,17 +1071,11 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -1254,17 +1098,11 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>SUM(A2:A13)</f>
         <v>1</v>
